--- a/Fisica 1/Dados - relatório 3.xlsx
+++ b/Fisica 1/Dados - relatório 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neolu\OneDrive\Área de Trabalho\Lucas\UERJ\UERJ\Fisica 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32C7A3F-8005-492B-A0A8-F19AD4A06EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990E1232-EF65-4A27-83E2-CD92B00B31E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{833BDFB7-3406-4A59-8FA6-B1B7E3DB9FDF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>S = 30</t>
   </si>
@@ -74,13 +74,19 @@
     <t>TEMPO (s):</t>
   </si>
   <si>
-    <t>MEDIA DO TEMPO(s):</t>
-  </si>
-  <si>
-    <t>VELOCIDADE MÉDIA:</t>
-  </si>
-  <si>
-    <t>ACELERAÇÃO:</t>
+    <t>MÉDIA DO TEMPO(s):</t>
+  </si>
+  <si>
+    <t>ACELERAÇÃO(cm/s²):</t>
+  </si>
+  <si>
+    <t>VELOCIDADE MÉDIA(cm/s):</t>
+  </si>
+  <si>
+    <t>INCERTEZA DA VELOCIDADE MÉDIA:</t>
+  </si>
+  <si>
+    <t>INCERTEZA DA ACELERAÇÃO:</t>
   </si>
 </sst>
 </file>
@@ -201,37 +207,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,519 +562,592 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE68F58-8C2F-42F9-8D70-E066F16ECB12}">
-  <dimension ref="A1:K14"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>0.25169999999999998</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="3">
         <v>0.219</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
         <v>0.19520000000000001</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>0.1779</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2">
         <v>0.16470000000000001</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>0.154</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="2">
         <v>0.14530000000000001</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <v>0.13750000000000001</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <v>0.1318</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="2">
         <v>0.12590000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="5">
+      <c r="A3" s="12"/>
+      <c r="B3" s="2">
         <v>0.25209999999999999</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>0.21879999999999999</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>0.19539999999999999</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>0.1779</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <v>0.1648</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <v>0.15379999999999999</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="2">
         <v>0.1452</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <v>0.13750000000000001</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <v>0.13170000000000001</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="2">
         <v>0.12590000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5">
+      <c r="A4" s="12"/>
+      <c r="B4" s="2">
         <v>0.25190000000000001</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>0.219</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>0.19539999999999999</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>0.1779</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <v>0.16450000000000001</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>0.1537</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2">
         <v>0.14510000000000001</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <v>0.1376</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <v>0.13170000000000001</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="2">
         <v>0.1258</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5">
+      <c r="A5" s="12"/>
+      <c r="B5" s="2">
         <v>0.25190000000000001</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>0.21859999999999999</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>0.1953</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>0.17810000000000001</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>0.1646</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <v>0.15390000000000001</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="2">
         <v>0.14530000000000001</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <v>0.13769999999999999</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <v>0.13170000000000001</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="2">
         <v>0.1258</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="5">
+      <c r="A6" s="12"/>
+      <c r="B6" s="2">
         <v>0.25180000000000002</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>0.21870000000000001</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>0.1956</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>0.17780000000000001</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2">
         <v>0.16420000000000001</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <v>0.15379999999999999</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
         <v>0.14530000000000001</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <v>0.13769999999999999</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <v>0.13159999999999999</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="2">
         <v>0.1258</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="2">
         <v>0.25180000000000002</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>0.21920000000000001</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>0.19520000000000001</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>0.1777</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="2">
         <v>0.16470000000000001</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <v>0.15390000000000001</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="2">
         <v>0.1454</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <v>0.13769999999999999</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <v>0.13170000000000001</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="2">
         <v>0.1258</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5">
+      <c r="A8" s="12"/>
+      <c r="B8" s="2">
         <v>0.25169999999999998</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>0.21829999999999999</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>0.1956</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <v>0.1779</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="2">
         <v>0.16470000000000001</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <v>0.15390000000000001</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="2">
         <v>0.14530000000000001</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <v>0.13769999999999999</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <v>0.13170000000000001</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="2">
         <v>0.1258</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="2">
         <v>0.25180000000000002</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>0.219</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>0.19520000000000001</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>0.17780000000000001</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="2">
         <v>0.16470000000000001</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <v>0.15390000000000001</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="2">
         <v>0.14530000000000001</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <v>0.13769999999999999</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <v>0.13159999999999999</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="2">
         <v>0.1258</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="2">
         <v>0.25180000000000002</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>0.21879999999999999</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>0.19550000000000001</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <v>0.1779</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="2">
         <v>0.16450000000000001</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="2">
         <v>0.15390000000000001</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="2">
         <v>0.14530000000000001</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <v>0.13789999999999999</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <v>0.13159999999999999</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="2">
         <v>0.1258</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5">
+      <c r="A11" s="13"/>
+      <c r="B11" s="2">
         <v>0.25169999999999998</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>0.21920000000000001</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2">
         <v>0.1948</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="2">
         <v>0.1779</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="2">
         <v>0.1646</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="2">
         <v>0.15390000000000001</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="2">
         <v>0.14510000000000001</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="2">
         <v>0.13150000000000001</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="2">
         <v>0.1258</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <f>AVERAGE(B2:B11)</f>
+      <c r="B12" s="10">
+        <f t="shared" ref="B12:K12" si="0">AVERAGE(B2:B11)</f>
         <v>0.25182000000000004</v>
       </c>
-      <c r="C12" s="2">
-        <f t="shared" ref="C12:K12" si="0">AVERAGE(C2:C11)</f>
+      <c r="C12" s="10">
+        <f t="shared" si="0"/>
         <v>0.21886</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="10">
         <f t="shared" si="0"/>
         <v>0.19531999999999999</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>0.17787999999999998</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>0.16460000000000002</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="10">
         <f t="shared" si="0"/>
         <v>0.15386999999999998</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="10">
         <f t="shared" si="0"/>
         <v>0.14526</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="10">
         <f t="shared" si="0"/>
         <v>0.13767999999999997</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="10">
         <f t="shared" si="0"/>
         <v>0.13166</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="10">
         <f t="shared" si="0"/>
         <v>0.12581999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6">
         <f>(9.7/B12)</f>
         <v>38.519577475974891</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6">
         <f t="shared" ref="C13:K13" si="1">(9.7/C12)</f>
         <v>44.320570227542717</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="6">
         <f t="shared" si="1"/>
         <v>49.662092975629733</v>
       </c>
-      <c r="E13" s="9">
-        <f t="shared" si="1"/>
+      <c r="E13" s="6">
+        <f>(9.7/E12)</f>
         <v>54.531144591859679</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <f t="shared" si="1"/>
         <v>58.930741190765481</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>63.040228764541503</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="6">
         <f t="shared" si="1"/>
         <v>66.77681398870989</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="6">
         <f t="shared" si="1"/>
         <v>70.453224869262073</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="6">
         <f t="shared" si="1"/>
         <v>73.674616436275244</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="6">
         <f t="shared" si="1"/>
         <v>77.09426164361787</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="10">
-        <f>((B13^2)/(2*9.7))</f>
-        <v>76.482363346785178</v>
-      </c>
-      <c r="C14" s="10">
-        <f t="shared" ref="C14:K14" si="2">((C13^2)/(2*9.7))</f>
-        <v>101.25324460281165</v>
-      </c>
-      <c r="D14" s="10">
-        <f t="shared" si="2"/>
-        <v>127.13007622268518</v>
-      </c>
-      <c r="E14" s="10">
-        <f t="shared" si="2"/>
-        <v>153.28070775764471</v>
-      </c>
-      <c r="F14" s="10">
-        <f t="shared" si="2"/>
-        <v>179.01197202541152</v>
-      </c>
-      <c r="G14" s="10">
-        <f t="shared" si="2"/>
-        <v>204.84899189101682</v>
-      </c>
-      <c r="H14" s="10">
-        <f t="shared" si="2"/>
-        <v>229.85272610735885</v>
-      </c>
-      <c r="I14" s="10">
-        <f t="shared" si="2"/>
-        <v>255.85860280818599</v>
-      </c>
-      <c r="J14" s="10">
-        <f t="shared" si="2"/>
-        <v>279.79119108413806</v>
-      </c>
-      <c r="K14" s="10">
-        <f t="shared" si="2"/>
-        <v>306.36727723580464</v>
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.39739999999999998</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.45739999999999997</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.51259999999999994</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.60860000000000003</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.6512</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.72809999999999997</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.79710000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <f>((B13^2)/(2*30))</f>
+        <v>24.729297482127205</v>
+      </c>
+      <c r="C15" s="7">
+        <f>((C13^2)/(2*40))</f>
+        <v>24.553911816181824</v>
+      </c>
+      <c r="D15" s="7">
+        <f>((D13^2)/(2*50))</f>
+        <v>24.663234787200921</v>
+      </c>
+      <c r="E15" s="7">
+        <f>((E13^2)/(2*60))</f>
+        <v>24.780381087485896</v>
+      </c>
+      <c r="F15" s="7">
+        <f>((F13^2)/(2*70))</f>
+        <v>24.805944694949879</v>
+      </c>
+      <c r="G15" s="7">
+        <f>((G13^2)/(2*80))</f>
+        <v>24.837940266785786</v>
+      </c>
+      <c r="H15" s="7">
+        <f>((H13^2)/(2*90))</f>
+        <v>24.773016036015342</v>
+      </c>
+      <c r="I15" s="7">
+        <f>((I13^2)/(2*100))</f>
+        <v>24.818284472394041</v>
+      </c>
+      <c r="J15" s="7">
+        <f>((J13^2)/(2*110))</f>
+        <v>24.672495941055811</v>
+      </c>
+      <c r="K15" s="7">
+        <f>((K13^2)/(2*120))</f>
+        <v>24.764688243227543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.50690000000000002</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.50929999999999997</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.51190000000000002</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.51259999999999994</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.51339999999999997</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.51219999999999999</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.51329999999999998</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.51249999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1067,5 +1155,6 @@
     <mergeCell ref="A2:A11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>